--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duyi3\Desktop\Gilad\OPERATING_SYSTEM_67808\EX1_GITHUB\OS_ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43680B2A-379C-4FF3-AEDA-F08894EC74CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDE7B51-FB72-4207-9DAB-FE570EE10B81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{DA1F8A19-56F1-4050-BEC3-AD28B96F027A}"/>
+    <workbookView xWindow="5655" yWindow="1950" windowWidth="21570" windowHeight="11385" xr2:uid="{DA1F8A19-56F1-4050-BEC3-AD28B96F027A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,13 +97,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -326,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -334,6 +340,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,54 +407,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,7 +726,7 @@
   <dimension ref="B3:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,463 +736,463 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="2:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
         <v>12.5</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <v>3.75</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9">
         <v>2.02</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="8">
         <v>1.8</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="7">
         <v>1.81</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="20">
+        <v>2.06</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1.99</v>
+      </c>
+      <c r="L6" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3.75</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1.44</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1.53</v>
+      </c>
+      <c r="J7" s="21">
+        <v>1.84</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="L7" s="13">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="E8" s="15">
+        <v>611.25</v>
+      </c>
+      <c r="F8" s="16">
+        <v>444.37</v>
+      </c>
+      <c r="G8" s="15">
+        <v>420.82</v>
+      </c>
+      <c r="H8" s="16">
+        <v>391.82</v>
+      </c>
+      <c r="I8" s="15">
+        <v>388.91</v>
+      </c>
+      <c r="J8" s="22">
+        <v>418.74</v>
+      </c>
+      <c r="K8" s="14">
+        <v>389.51</v>
+      </c>
+      <c r="L8" s="15">
+        <v>390.25599999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
+        <v>791</v>
+      </c>
+      <c r="E12" s="7">
+        <v>90</v>
+      </c>
+      <c r="F12" s="8">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="G12" s="9">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="H12" s="8">
+        <v>5.54</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6.03</v>
+      </c>
+      <c r="J12" s="20">
+        <v>6.82</v>
+      </c>
+      <c r="K12" s="10">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="L12" s="11">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9">
+        <v>390</v>
+      </c>
+      <c r="E13" s="9">
+        <v>47.16</v>
+      </c>
+      <c r="F13" s="12">
+        <v>25.8</v>
+      </c>
+      <c r="G13" s="9">
+        <v>20.12</v>
+      </c>
+      <c r="H13" s="12">
+        <v>41.39</v>
+      </c>
+      <c r="I13" s="9">
+        <v>46.14</v>
+      </c>
+      <c r="J13" s="21">
+        <v>25.02</v>
+      </c>
+      <c r="K13" s="3">
+        <v>18.37</v>
+      </c>
+      <c r="L13" s="13">
+        <v>22.29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15">
+        <v>1133</v>
+      </c>
+      <c r="E14" s="15">
+        <v>776.5</v>
+      </c>
+      <c r="F14" s="16">
+        <v>778</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1054.8599999999999</v>
+      </c>
+      <c r="H14" s="16">
+        <v>1225.56</v>
+      </c>
+      <c r="I14" s="15">
+        <v>738.13</v>
+      </c>
+      <c r="J14" s="22">
+        <v>695.52</v>
+      </c>
+      <c r="K14" s="14">
+        <v>660.72</v>
+      </c>
+      <c r="L14" s="15">
+        <v>660.67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1.71</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1.82</v>
+      </c>
+      <c r="H18" s="8">
         <v>1.96</v>
       </c>
-      <c r="K6" s="13">
-        <v>1.99</v>
-      </c>
-      <c r="L6" s="14">
+      <c r="I18" s="7">
+        <v>1.91</v>
+      </c>
+      <c r="J18" s="20">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K18" s="10">
+        <v>1.97</v>
+      </c>
+      <c r="L18" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10">
-        <v>12.5</v>
-      </c>
-      <c r="E7" s="12">
-        <v>3.75</v>
-      </c>
-      <c r="F7" s="15">
-        <v>2</v>
-      </c>
-      <c r="G7" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1.44</v>
-      </c>
-      <c r="I7" s="12">
-        <v>1.53</v>
-      </c>
-      <c r="J7" s="15">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>5.71</v>
+      </c>
+      <c r="F19" s="12">
         <v>1.57</v>
       </c>
-      <c r="K7" s="6">
+      <c r="G19" s="9">
+        <v>2.37</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1.69</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1.64</v>
+      </c>
+      <c r="J19" s="21">
+        <v>1.83</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="L19" s="13">
         <v>1.6</v>
       </c>
-      <c r="L7" s="16">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
+    </row>
+    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="10">
-        <v>12.5</v>
-      </c>
-      <c r="E8" s="18">
-        <v>611.25</v>
-      </c>
-      <c r="F8" s="19">
-        <v>444.37</v>
-      </c>
-      <c r="G8" s="18">
-        <v>420.82</v>
-      </c>
-      <c r="H8" s="19">
-        <v>391.82</v>
-      </c>
-      <c r="I8" s="18">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15">
+        <v>471.42</v>
+      </c>
+      <c r="E20" s="15">
+        <v>494.28</v>
+      </c>
+      <c r="F20" s="16">
+        <v>426.42</v>
+      </c>
+      <c r="G20" s="15">
+        <v>407.75</v>
+      </c>
+      <c r="H20" s="16">
+        <v>395.11</v>
+      </c>
+      <c r="I20" s="15">
+        <v>389.88</v>
+      </c>
+      <c r="J20" s="22">
+        <v>413.83</v>
+      </c>
+      <c r="K20" s="14">
+        <v>389.34</v>
+      </c>
+      <c r="L20" s="15">
         <v>388.91</v>
       </c>
-      <c r="J8" s="19">
-        <v>388.49</v>
-      </c>
-      <c r="K8" s="17">
-        <v>389.51</v>
-      </c>
-      <c r="L8" s="18">
-        <v>390.25599999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10">
-        <v>791</v>
-      </c>
-      <c r="E12" s="10">
-        <v>90</v>
-      </c>
-      <c r="F12" s="11">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="G12" s="12">
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="H12" s="11">
-        <v>5.54</v>
-      </c>
-      <c r="I12" s="10">
-        <v>6.03</v>
-      </c>
-      <c r="J12" s="11">
-        <v>6.82</v>
-      </c>
-      <c r="K12" s="13">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="L12" s="14">
-        <v>4.7300000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12">
-        <v>390</v>
-      </c>
-      <c r="E13" s="12">
-        <v>47.16</v>
-      </c>
-      <c r="F13" s="15">
-        <v>25.8</v>
-      </c>
-      <c r="G13" s="12">
-        <v>20.12</v>
-      </c>
-      <c r="H13" s="15">
-        <v>41.39</v>
-      </c>
-      <c r="I13" s="12">
-        <v>46.14</v>
-      </c>
-      <c r="J13" s="15">
-        <v>25.02</v>
-      </c>
-      <c r="K13" s="6">
-        <v>18.37</v>
-      </c>
-      <c r="L13" s="16">
-        <v>22.29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18">
-        <v>1133</v>
-      </c>
-      <c r="E14" s="18">
-        <v>776.5</v>
-      </c>
-      <c r="F14" s="19">
-        <v>778</v>
-      </c>
-      <c r="G14" s="18">
-        <v>1054.8599999999999</v>
-      </c>
-      <c r="H14" s="19">
-        <v>1225.56</v>
-      </c>
-      <c r="I14" s="18">
-        <v>738.13</v>
-      </c>
-      <c r="J14" s="19">
-        <v>695.52</v>
-      </c>
-      <c r="K14" s="17">
-        <v>660.72</v>
-      </c>
-      <c r="L14" s="18">
-        <v>660.67</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="2:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="2:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>1.71</v>
-      </c>
-      <c r="G18" s="12">
-        <v>1.82</v>
-      </c>
-      <c r="H18" s="11">
-        <v>1.96</v>
-      </c>
-      <c r="I18" s="10">
-        <v>1.91</v>
-      </c>
-      <c r="J18" s="11">
-        <v>1.98</v>
-      </c>
-      <c r="K18" s="13">
-        <v>1.97</v>
-      </c>
-      <c r="L18" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
-        <v>5.71</v>
-      </c>
-      <c r="F19" s="15">
-        <v>1.57</v>
-      </c>
-      <c r="G19" s="12">
-        <v>2.37</v>
-      </c>
-      <c r="H19" s="15">
-        <v>1.69</v>
-      </c>
-      <c r="I19" s="12">
-        <v>1.64</v>
-      </c>
-      <c r="J19" s="15">
-        <v>1.61</v>
-      </c>
-      <c r="K19" s="6">
-        <v>1.57</v>
-      </c>
-      <c r="L19" s="16">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18">
-        <v>471.42</v>
-      </c>
-      <c r="E20" s="18">
-        <v>494.28</v>
-      </c>
-      <c r="F20" s="19">
-        <v>426.42</v>
-      </c>
-      <c r="G20" s="18">
-        <v>407.75</v>
-      </c>
-      <c r="H20" s="19">
-        <v>395.11</v>
-      </c>
-      <c r="I20" s="18">
-        <v>389.88</v>
-      </c>
-      <c r="J20" s="19">
-        <v>390.21</v>
-      </c>
-      <c r="K20" s="17">
-        <v>389.34</v>
-      </c>
-      <c r="L20" s="18">
-        <v>388.91</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="21">
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H22" s="18">
         <v>0</v>
       </c>
     </row>
